--- a/data_historis/ETH_data_historis.xlsx
+++ b/data_historis/ETH_data_historis.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1827"/>
+  <dimension ref="A1:L1953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65883,7 +65883,7 @@
         <v>14080099208</v>
       </c>
       <c r="H1423" t="n">
-        <v>135633447403</v>
+        <v>136233447405</v>
       </c>
       <c r="I1423" t="inlineStr">
         <is>
@@ -70713,7 +70713,7 @@
         <v>6854058349</v>
       </c>
       <c r="H1528" t="n">
-        <v>191139794721</v>
+        <v>188146989948</v>
       </c>
       <c r="I1528" t="inlineStr">
         <is>
@@ -70759,7 +70759,7 @@
         <v>7130327525</v>
       </c>
       <c r="H1529" t="n">
-        <v>187732308103</v>
+        <v>184792856648</v>
       </c>
       <c r="I1529" t="inlineStr">
         <is>
@@ -70805,7 +70805,7 @@
         <v>9457897583</v>
       </c>
       <c r="H1530" t="n">
-        <v>176054474765</v>
+        <v>173297871028</v>
       </c>
       <c r="I1530" t="inlineStr">
         <is>
@@ -70851,7 +70851,7 @@
         <v>12665194936</v>
       </c>
       <c r="H1531" t="n">
-        <v>174891606136</v>
+        <v>172153210218</v>
       </c>
       <c r="I1531" t="inlineStr">
         <is>
@@ -70897,7 +70897,7 @@
         <v>14917080154</v>
       </c>
       <c r="H1532" t="n">
-        <v>181433531480</v>
+        <v>178592704222</v>
       </c>
       <c r="I1532" t="inlineStr">
         <is>
@@ -70943,7 +70943,7 @@
         <v>11480965122</v>
       </c>
       <c r="H1533" t="n">
-        <v>194610296522</v>
+        <v>191563151760</v>
       </c>
       <c r="I1533" t="inlineStr">
         <is>
@@ -70989,7 +70989,7 @@
         <v>15711468959</v>
       </c>
       <c r="H1534" t="n">
-        <v>205625908298</v>
+        <v>202406284668</v>
       </c>
       <c r="I1534" t="inlineStr">
         <is>
@@ -71035,7 +71035,7 @@
         <v>16159781303</v>
       </c>
       <c r="H1535" t="n">
-        <v>208464753139</v>
+        <v>205200679799</v>
       </c>
       <c r="I1535" t="inlineStr">
         <is>
@@ -71081,7 +71081,7 @@
         <v>12715339905</v>
       </c>
       <c r="H1536" t="n">
-        <v>202673213631</v>
+        <v>199499822334</v>
       </c>
       <c r="I1536" t="inlineStr">
         <is>
@@ -71127,7 +71127,7 @@
         <v>9364980166</v>
       </c>
       <c r="H1537" t="n">
-        <v>205247345637</v>
+        <v>202033649417</v>
       </c>
       <c r="I1537" t="inlineStr">
         <is>
@@ -71173,7 +71173,7 @@
         <v>12467445117</v>
       </c>
       <c r="H1538" t="n">
-        <v>219353336789</v>
+        <v>215918773546</v>
       </c>
       <c r="I1538" t="inlineStr">
         <is>
@@ -71219,7 +71219,7 @@
         <v>10317822213</v>
       </c>
       <c r="H1539" t="n">
-        <v>215581106420</v>
+        <v>212205607534</v>
       </c>
       <c r="I1539" t="inlineStr">
         <is>
@@ -71265,7 +71265,7 @@
         <v>9170565472</v>
       </c>
       <c r="H1540" t="n">
-        <v>218507909797</v>
+        <v>215086583974</v>
       </c>
       <c r="I1540" t="inlineStr">
         <is>
@@ -71311,7 +71311,7 @@
         <v>10978325507</v>
       </c>
       <c r="H1541" t="n">
-        <v>212357972798</v>
+        <v>209032940690</v>
       </c>
       <c r="I1541" t="inlineStr">
         <is>
@@ -71357,7 +71357,7 @@
         <v>10758627746</v>
       </c>
       <c r="H1542" t="n">
-        <v>221100296684</v>
+        <v>217638380110</v>
       </c>
       <c r="I1542" t="inlineStr">
         <is>
@@ -71403,7 +71403,7 @@
         <v>12484103560</v>
       </c>
       <c r="H1543" t="n">
-        <v>212651145920</v>
+        <v>209321523403</v>
       </c>
       <c r="I1543" t="inlineStr">
         <is>
@@ -71449,7 +71449,7 @@
         <v>11012966854</v>
       </c>
       <c r="H1544" t="n">
-        <v>222280524748</v>
+        <v>218800128547</v>
       </c>
       <c r="I1544" t="inlineStr">
         <is>
@@ -71495,7 +71495,7 @@
         <v>10913669383</v>
       </c>
       <c r="H1545" t="n">
-        <v>214404502911</v>
+        <v>211047426899</v>
       </c>
       <c r="I1545" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         <v>6614309912</v>
       </c>
       <c r="H1546" t="n">
-        <v>213391238626</v>
+        <v>210050027978</v>
       </c>
       <c r="I1546" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         <v>6990313307</v>
       </c>
       <c r="H1547" t="n">
-        <v>217296429099</v>
+        <v>213894072248</v>
       </c>
       <c r="I1547" t="inlineStr">
         <is>
@@ -71633,7 +71633,7 @@
         <v>8585750760</v>
       </c>
       <c r="H1548" t="n">
-        <v>209927572136</v>
+        <v>206640594452</v>
       </c>
       <c r="I1548" t="inlineStr">
         <is>
@@ -71679,7 +71679,7 @@
         <v>8346890042</v>
       </c>
       <c r="H1549" t="n">
-        <v>216942634875</v>
+        <v>213545817619</v>
       </c>
       <c r="I1549" t="inlineStr">
         <is>
@@ -71725,7 +71725,7 @@
         <v>9136176952</v>
       </c>
       <c r="H1550" t="n">
-        <v>219416572784</v>
+        <v>215981019412</v>
       </c>
       <c r="I1550" t="inlineStr">
         <is>
@@ -71771,7 +71771,7 @@
         <v>9724496987</v>
       </c>
       <c r="H1551" t="n">
-        <v>219384174417</v>
+        <v>215949128328</v>
       </c>
       <c r="I1551" t="inlineStr">
         <is>
@@ -72461,7 +72461,7 @@
         <v>16298099411</v>
       </c>
       <c r="H1566" t="n">
-        <v>252646950003</v>
+        <v>253071548117</v>
       </c>
       <c r="I1566" t="inlineStr">
         <is>
@@ -72507,7 +72507,7 @@
         <v>8036468153</v>
       </c>
       <c r="H1567" t="n">
-        <v>251325536962</v>
+        <v>251967491965</v>
       </c>
       <c r="I1567" t="inlineStr">
         <is>
@@ -72553,7 +72553,7 @@
         <v>7898126856</v>
       </c>
       <c r="H1568" t="n">
-        <v>253800479048</v>
+        <v>255283637378</v>
       </c>
       <c r="I1568" t="inlineStr">
         <is>
@@ -72599,7 +72599,7 @@
         <v>9648882546</v>
       </c>
       <c r="H1569" t="n">
-        <v>247975491589</v>
+        <v>250013873107</v>
       </c>
       <c r="I1569" t="inlineStr">
         <is>
@@ -72645,7 +72645,7 @@
         <v>9134015143</v>
       </c>
       <c r="H1570" t="n">
-        <v>251214922677</v>
+        <v>253420968662</v>
       </c>
       <c r="I1570" t="inlineStr">
         <is>
@@ -72691,7 +72691,7 @@
         <v>13779745451</v>
       </c>
       <c r="H1571" t="n">
-        <v>231098233851</v>
+        <v>233174888108</v>
       </c>
       <c r="I1571" t="inlineStr">
         <is>
@@ -72737,7 +72737,7 @@
         <v>11324135406</v>
       </c>
       <c r="H1572" t="n">
-        <v>234005095167</v>
+        <v>233980980710</v>
       </c>
       <c r="I1572" t="inlineStr">
         <is>
@@ -73749,7 +73749,7 @@
         <v>9047198660</v>
       </c>
       <c r="H1594" t="n">
-        <v>222028758931</v>
+        <v>217509042566</v>
       </c>
       <c r="I1594" t="inlineStr">
         <is>
@@ -73795,7 +73795,7 @@
         <v>4647630864</v>
       </c>
       <c r="H1595" t="n">
-        <v>220637609942</v>
+        <v>216076864886</v>
       </c>
       <c r="I1595" t="inlineStr">
         <is>
@@ -73841,7 +73841,7 @@
         <v>4711210241</v>
       </c>
       <c r="H1596" t="n">
-        <v>221375138904</v>
+        <v>216604520919</v>
       </c>
       <c r="I1596" t="inlineStr">
         <is>
@@ -73887,7 +73887,7 @@
         <v>6748889346</v>
       </c>
       <c r="H1597" t="n">
-        <v>223490168593</v>
+        <v>218655541120</v>
       </c>
       <c r="I1597" t="inlineStr">
         <is>
@@ -76969,7 +76969,7 @@
         <v>4668158260</v>
       </c>
       <c r="H1664" t="n">
-        <v>227568017430</v>
+        <v>227406861183</v>
       </c>
       <c r="I1664" t="inlineStr">
         <is>
@@ -77153,7 +77153,7 @@
         <v>4163381707</v>
       </c>
       <c r="H1668" t="n">
-        <v>223456250671</v>
+        <v>223311516836</v>
       </c>
       <c r="I1668" t="inlineStr">
         <is>
@@ -77199,7 +77199,7 @@
         <v>5781548155</v>
       </c>
       <c r="H1669" t="n">
-        <v>225653957077</v>
+        <v>225044642697</v>
       </c>
       <c r="I1669" t="inlineStr">
         <is>
@@ -77245,7 +77245,7 @@
         <v>4291339248</v>
       </c>
       <c r="H1670" t="n">
-        <v>223597227104</v>
+        <v>223594122242</v>
       </c>
       <c r="I1670" t="inlineStr">
         <is>
@@ -77291,7 +77291,7 @@
         <v>3800973336</v>
       </c>
       <c r="H1671" t="n">
-        <v>226529194963</v>
+        <v>225323363357</v>
       </c>
       <c r="I1671" t="inlineStr">
         <is>
@@ -77383,7 +77383,7 @@
         <v>4003005547</v>
       </c>
       <c r="H1673" t="n">
-        <v>225274024718</v>
+        <v>223743340382</v>
       </c>
       <c r="I1673" t="inlineStr">
         <is>
@@ -77521,7 +77521,7 @@
         <v>6448512422</v>
       </c>
       <c r="H1676" t="n">
-        <v>223097571555</v>
+        <v>221014149638</v>
       </c>
       <c r="I1676" t="inlineStr">
         <is>
@@ -81247,7 +81247,7 @@
         <v>5248406817</v>
       </c>
       <c r="H1757" t="n">
-        <v>200056060611</v>
+        <v>200053258047</v>
       </c>
       <c r="I1757" t="inlineStr">
         <is>
@@ -81293,7 +81293,7 @@
         <v>14362295879</v>
       </c>
       <c r="H1758" t="n">
-        <v>212318616215</v>
+        <v>211000651717</v>
       </c>
       <c r="I1758" t="inlineStr">
         <is>
@@ -81339,7 +81339,7 @@
         <v>15888690475</v>
       </c>
       <c r="H1759" t="n">
-        <v>214606289148</v>
+        <v>214606289153</v>
       </c>
       <c r="I1759" t="inlineStr">
         <is>
@@ -83961,7 +83961,7 @@
         <v>12652290807</v>
       </c>
       <c r="H1816" t="n">
-        <v>260958704557</v>
+        <v>264648783324</v>
       </c>
       <c r="I1816" t="inlineStr">
         <is>
@@ -84487,6 +84487,5802 @@
       <c r="L1827" t="inlineStr">
         <is>
           <t>2023-12-31T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="1" t="n">
+        <v>1826</v>
+      </c>
+      <c r="B1828" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>2282.87</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>2352.33</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>2267.02</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>2352.33</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>6906765990</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>282509699544</v>
+      </c>
+      <c r="I1828" t="inlineStr">
+        <is>
+          <t>2024-01-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1828" t="inlineStr">
+        <is>
+          <t>2024-01-01T23:59:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1828" t="inlineStr">
+        <is>
+          <t>2024-01-01T04:22:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1828" t="inlineStr">
+        <is>
+          <t>2024-01-01T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="1" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B1829" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>2352.59</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>2431.21</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>2348.89</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>2355.84</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>12910543630</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>283136372945</v>
+      </c>
+      <c r="I1829" t="inlineStr">
+        <is>
+          <t>2024-01-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1829" t="inlineStr">
+        <is>
+          <t>2024-01-02T08:52:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1829" t="inlineStr">
+        <is>
+          <t>2024-01-02T00:04:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1829" t="inlineStr">
+        <is>
+          <t>2024-01-02T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="1" t="n">
+        <v>1828</v>
+      </c>
+      <c r="B1830" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>2355.98</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>2385.12</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>2113.93</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>2210.76</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>19332933581</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>265701513401</v>
+      </c>
+      <c r="I1830" t="inlineStr">
+        <is>
+          <t>2024-01-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1830" t="inlineStr">
+        <is>
+          <t>2024-01-03T09:40:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1830" t="inlineStr">
+        <is>
+          <t>2024-01-03T12:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1830" t="inlineStr">
+        <is>
+          <t>2024-01-03T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="1" t="n">
+        <v>1829</v>
+      </c>
+      <c r="B1831" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>2210.53</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>2294.61</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>2204.87</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>2269.04</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>11044564896</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>272702497877</v>
+      </c>
+      <c r="I1831" t="inlineStr">
+        <is>
+          <t>2024-01-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1831" t="inlineStr">
+        <is>
+          <t>2024-01-04T19:22:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1831" t="inlineStr">
+        <is>
+          <t>2024-01-04T01:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1831" t="inlineStr">
+        <is>
+          <t>2024-01-04T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="1" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B1832" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>2269.41</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>2276.76</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>2209.54</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>2268.65</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>10860953290</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>272655618351</v>
+      </c>
+      <c r="I1832" t="inlineStr">
+        <is>
+          <t>2024-01-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1832" t="inlineStr">
+        <is>
+          <t>2024-01-05T23:15:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1832" t="inlineStr">
+        <is>
+          <t>2024-01-05T17:10:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1832" t="inlineStr">
+        <is>
+          <t>2024-01-05T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="1" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B1833" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>2269.54</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>2271.36</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>2219.78</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>2241.62</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>5970741680</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>269408524950</v>
+      </c>
+      <c r="I1833" t="inlineStr">
+        <is>
+          <t>2024-01-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1833" t="inlineStr">
+        <is>
+          <t>2024-01-06T00:15:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1833" t="inlineStr">
+        <is>
+          <t>2024-01-06T06:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1833" t="inlineStr">
+        <is>
+          <t>2024-01-06T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="1" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B1834" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>2242.01</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>2257.13</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>2211.56</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>2222.87</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>6490053615</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>267155209385</v>
+      </c>
+      <c r="I1834" t="inlineStr">
+        <is>
+          <t>2024-01-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1834" t="inlineStr">
+        <is>
+          <t>2024-01-07T13:31:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1834" t="inlineStr">
+        <is>
+          <t>2024-01-07T22:37:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1834" t="inlineStr">
+        <is>
+          <t>2024-01-07T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="1" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B1835" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>2222.86</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>2358.82</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>2171.99</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>2333.03</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>13830287095</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>280393647671</v>
+      </c>
+      <c r="I1835" t="inlineStr">
+        <is>
+          <t>2024-01-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1835" t="inlineStr">
+        <is>
+          <t>2024-01-08T20:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1835" t="inlineStr">
+        <is>
+          <t>2024-01-08T03:28:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1835" t="inlineStr">
+        <is>
+          <t>2024-01-08T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="1" t="n">
+        <v>1834</v>
+      </c>
+      <c r="B1836" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>2332.87</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>2369.64</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>2243.22</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>2344.83</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>14891130716</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>281810605623</v>
+      </c>
+      <c r="I1836" t="inlineStr">
+        <is>
+          <t>2024-01-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1836" t="inlineStr">
+        <is>
+          <t>2024-01-09T22:20:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1836" t="inlineStr">
+        <is>
+          <t>2024-01-09T12:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1836" t="inlineStr">
+        <is>
+          <t>2024-01-09T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="1" t="n">
+        <v>1835</v>
+      </c>
+      <c r="B1837" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>2344.92</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>2626.98</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>2341.94</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>2582.1</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>29042100476</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>310327971097</v>
+      </c>
+      <c r="I1837" t="inlineStr">
+        <is>
+          <t>2024-01-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1837" t="inlineStr">
+        <is>
+          <t>2024-01-10T23:22:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1837" t="inlineStr">
+        <is>
+          <t>2024-01-10T00:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1837" t="inlineStr">
+        <is>
+          <t>2024-01-10T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="1" t="n">
+        <v>1836</v>
+      </c>
+      <c r="B1838" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>2584.17</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>2687.78</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>2567.99</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>2619.62</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>22575246883</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>314832271105</v>
+      </c>
+      <c r="I1838" t="inlineStr">
+        <is>
+          <t>2024-01-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1838" t="inlineStr">
+        <is>
+          <t>2024-01-11T15:13:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1838" t="inlineStr">
+        <is>
+          <t>2024-01-11T02:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1838" t="inlineStr">
+        <is>
+          <t>2024-01-11T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="1" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B1839" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>2619.18</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>2710.42</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>2460.93</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>2524.46</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>23623839263</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>303393130318</v>
+      </c>
+      <c r="I1839" t="inlineStr">
+        <is>
+          <t>2024-01-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1839" t="inlineStr">
+        <is>
+          <t>2024-01-12T15:12:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1839" t="inlineStr">
+        <is>
+          <t>2024-01-12T22:29:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1839" t="inlineStr">
+        <is>
+          <t>2024-01-12T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="1" t="n">
+        <v>1838</v>
+      </c>
+      <c r="B1840" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>2522.93</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>2589.08</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>2498.59</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>2576.6</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>12250316867</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>309658639358</v>
+      </c>
+      <c r="I1840" t="inlineStr">
+        <is>
+          <t>2024-01-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1840" t="inlineStr">
+        <is>
+          <t>2024-01-13T23:20:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1840" t="inlineStr">
+        <is>
+          <t>2024-01-13T01:16:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1840" t="inlineStr">
+        <is>
+          <t>2024-01-13T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="1" t="n">
+        <v>1839</v>
+      </c>
+      <c r="B1841" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>2578</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>2578.33</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>2470.42</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>2472.24</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>9405587417</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>297118235336</v>
+      </c>
+      <c r="I1841" t="inlineStr">
+        <is>
+          <t>2024-01-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1841" t="inlineStr">
+        <is>
+          <t>2024-01-14T00:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1841" t="inlineStr">
+        <is>
+          <t>2024-01-14T23:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1841" t="inlineStr">
+        <is>
+          <t>2024-01-14T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B1842" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>2471.67</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>2550.77</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>2470.82</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>2511.36</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>9700630000</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>301817746261</v>
+      </c>
+      <c r="I1842" t="inlineStr">
+        <is>
+          <t>2024-01-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1842" t="inlineStr">
+        <is>
+          <t>2024-01-15T18:45:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1842" t="inlineStr">
+        <is>
+          <t>2024-01-15T00:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1842" t="inlineStr">
+        <is>
+          <t>2024-01-15T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="1" t="n">
+        <v>1841</v>
+      </c>
+      <c r="B1843" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>2510.63</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>2613.57</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>2587.69</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>11063317095</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>310990707686</v>
+      </c>
+      <c r="I1843" t="inlineStr">
+        <is>
+          <t>2024-01-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1843" t="inlineStr">
+        <is>
+          <t>2024-01-16T21:39:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1843" t="inlineStr">
+        <is>
+          <t>2024-01-16T14:45:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1843" t="inlineStr">
+        <is>
+          <t>2024-01-16T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="1" t="n">
+        <v>1842</v>
+      </c>
+      <c r="B1844" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>2587.04</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>2592.74</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>2508.43</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>2528.37</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>10441017520</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>303858773521</v>
+      </c>
+      <c r="I1844" t="inlineStr">
+        <is>
+          <t>2024-01-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1844" t="inlineStr">
+        <is>
+          <t>2024-01-17T01:29:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1844" t="inlineStr">
+        <is>
+          <t>2024-01-17T22:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1844" t="inlineStr">
+        <is>
+          <t>2024-01-17T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="1" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B1845" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>2528.59</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>2546.26</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>2426.14</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>2467.02</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>11900028080</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>296481971609</v>
+      </c>
+      <c r="I1845" t="inlineStr">
+        <is>
+          <t>2024-01-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1845" t="inlineStr">
+        <is>
+          <t>2024-01-18T09:12:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1845" t="inlineStr">
+        <is>
+          <t>2024-01-18T20:37:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1845" t="inlineStr">
+        <is>
+          <t>2024-01-18T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="B1846" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>2468.69</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>2501.31</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>2414.71</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>2489.5</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>11405278376</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>299180637171</v>
+      </c>
+      <c r="I1846" t="inlineStr">
+        <is>
+          <t>2024-01-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1846" t="inlineStr">
+        <is>
+          <t>2024-01-19T20:14:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1846" t="inlineStr">
+        <is>
+          <t>2024-01-19T16:45:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1846" t="inlineStr">
+        <is>
+          <t>2024-01-19T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="B1847" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>2489.85</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>2489.85</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>2456.1</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>2469.59</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>5297826161</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>296782924448</v>
+      </c>
+      <c r="I1847" t="inlineStr">
+        <is>
+          <t>2024-01-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1847" t="inlineStr">
+        <is>
+          <t>2024-01-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1847" t="inlineStr">
+        <is>
+          <t>2024-01-20T18:45:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1847" t="inlineStr">
+        <is>
+          <t>2024-01-20T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="1" t="n">
+        <v>1846</v>
+      </c>
+      <c r="B1848" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>2469.8</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>2479.76</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>2452.38</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>2453.91</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>4578471955</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>294903756221</v>
+      </c>
+      <c r="I1848" t="inlineStr">
+        <is>
+          <t>2024-01-21T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1848" t="inlineStr">
+        <is>
+          <t>2024-01-21T10:32:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1848" t="inlineStr">
+        <is>
+          <t>2024-01-21T23:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1848" t="inlineStr">
+        <is>
+          <t>2024-01-21T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="1" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B1849" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>2454.99</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>2463.45</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>2303.5</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>2310.83</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>13923771728</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>277710357859</v>
+      </c>
+      <c r="I1849" t="inlineStr">
+        <is>
+          <t>2024-01-22T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1849" t="inlineStr">
+        <is>
+          <t>2024-01-22T01:07:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1849" t="inlineStr">
+        <is>
+          <t>2024-01-22T22:47:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1849" t="inlineStr">
+        <is>
+          <t>2024-01-22T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="1" t="n">
+        <v>1848</v>
+      </c>
+      <c r="B1850" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>2310.95</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>2348.03</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>2167.28</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>2240.69</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>16182147521</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>269281864601</v>
+      </c>
+      <c r="I1850" t="inlineStr">
+        <is>
+          <t>2024-01-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1850" t="inlineStr">
+        <is>
+          <t>2024-01-23T04:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1850" t="inlineStr">
+        <is>
+          <t>2024-01-23T14:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1850" t="inlineStr">
+        <is>
+          <t>2024-01-23T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="1" t="n">
+        <v>1849</v>
+      </c>
+      <c r="B1851" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>2241.75</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>2261.38</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>2197.66</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>2233.56</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>10134722960</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>268427474610</v>
+      </c>
+      <c r="I1851" t="inlineStr">
+        <is>
+          <t>2024-01-24T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1851" t="inlineStr">
+        <is>
+          <t>2024-01-24T10:50:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1851" t="inlineStr">
+        <is>
+          <t>2024-01-24T20:56:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1851" t="inlineStr">
+        <is>
+          <t>2024-01-24T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="1" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B1852" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>2233.97</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>2240.38</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>2173.69</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>2217.71</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>9302247037</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>266524737082</v>
+      </c>
+      <c r="I1852" t="inlineStr">
+        <is>
+          <t>2024-01-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1852" t="inlineStr">
+        <is>
+          <t>2024-01-25T11:14:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1852" t="inlineStr">
+        <is>
+          <t>2024-01-25T17:09:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1852" t="inlineStr">
+        <is>
+          <t>2024-01-25T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="1" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B1853" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>2217.44</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>2280.38</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>2196.14</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>2267.2</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>9975117607</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>272471979598</v>
+      </c>
+      <c r="I1853" t="inlineStr">
+        <is>
+          <t>2024-01-26T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1853" t="inlineStr">
+        <is>
+          <t>2024-01-26T16:54:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1853" t="inlineStr">
+        <is>
+          <t>2024-01-26T07:59:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1853" t="inlineStr">
+        <is>
+          <t>2024-01-26T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="1" t="n">
+        <v>1852</v>
+      </c>
+      <c r="B1854" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>2267.32</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>2282.54</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>2252.39</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>2267.89</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>5144367230</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>272555235894</v>
+      </c>
+      <c r="I1854" t="inlineStr">
+        <is>
+          <t>2024-01-27T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1854" t="inlineStr">
+        <is>
+          <t>2024-01-27T01:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1854" t="inlineStr">
+        <is>
+          <t>2024-01-27T08:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1854" t="inlineStr">
+        <is>
+          <t>2024-01-27T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="1" t="n">
+        <v>1853</v>
+      </c>
+      <c r="B1855" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>2268.19</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>2306.9</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>2242.68</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>2257.21</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>7296214994</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>271274175520</v>
+      </c>
+      <c r="I1855" t="inlineStr">
+        <is>
+          <t>2024-01-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1855" t="inlineStr">
+        <is>
+          <t>2024-01-28T05:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1855" t="inlineStr">
+        <is>
+          <t>2024-01-28T22:40:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1855" t="inlineStr">
+        <is>
+          <t>2024-01-28T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="1" t="n">
+        <v>1854</v>
+      </c>
+      <c r="B1856" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>2257</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>2320.03</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>2237.71</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>2317.06</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>8948195551</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>278470139341</v>
+      </c>
+      <c r="I1856" t="inlineStr">
+        <is>
+          <t>2024-01-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1856" t="inlineStr">
+        <is>
+          <t>2024-01-29T22:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1856" t="inlineStr">
+        <is>
+          <t>2024-01-29T14:56:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1856" t="inlineStr">
+        <is>
+          <t>2024-01-29T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="1" t="n">
+        <v>1855</v>
+      </c>
+      <c r="B1857" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>2317.44</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>2388.87</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>2298.28</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>2344.49</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>10173440062</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>281768999229</v>
+      </c>
+      <c r="I1857" t="inlineStr">
+        <is>
+          <t>2024-01-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1857" t="inlineStr">
+        <is>
+          <t>2024-01-30T21:32:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1857" t="inlineStr">
+        <is>
+          <t>2024-01-30T13:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1857" t="inlineStr">
+        <is>
+          <t>2024-01-30T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="1" t="n">
+        <v>1856</v>
+      </c>
+      <c r="B1858" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>2343.56</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>2349.61</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>2264.44</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>2282.54</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>10807883277</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>274322642274</v>
+      </c>
+      <c r="I1858" t="inlineStr">
+        <is>
+          <t>2024-01-31T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1858" t="inlineStr">
+        <is>
+          <t>2024-01-31T00:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1858" t="inlineStr">
+        <is>
+          <t>2024-01-31T21:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1858" t="inlineStr">
+        <is>
+          <t>2024-01-31T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="1" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B1859" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>2282.18</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>2309.84</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>2243.57</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>2303.82</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>8895583113</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>276879517242</v>
+      </c>
+      <c r="I1859" t="inlineStr">
+        <is>
+          <t>2024-02-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1859" t="inlineStr">
+        <is>
+          <t>2024-02-01T17:33:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1859" t="inlineStr">
+        <is>
+          <t>2024-02-01T02:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1859" t="inlineStr">
+        <is>
+          <t>2024-02-01T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="1" t="n">
+        <v>1858</v>
+      </c>
+      <c r="B1860" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>2303.71</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>2323.05</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>2282.23</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>2308.04</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>7186143091</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>277384742647</v>
+      </c>
+      <c r="I1860" t="inlineStr">
+        <is>
+          <t>2024-02-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1860" t="inlineStr">
+        <is>
+          <t>2024-02-02T12:18:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1860" t="inlineStr">
+        <is>
+          <t>2024-02-02T14:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1860" t="inlineStr">
+        <is>
+          <t>2024-02-02T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="1" t="n">
+        <v>1859</v>
+      </c>
+      <c r="B1861" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>2307.98</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>2327.35</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>2293.54</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>2296.04</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>4647754021</v>
+      </c>
+      <c r="H1861" t="n">
+        <v>275941768998</v>
+      </c>
+      <c r="I1861" t="inlineStr">
+        <is>
+          <t>2024-02-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1861" t="inlineStr">
+        <is>
+          <t>2024-02-03T01:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1861" t="inlineStr">
+        <is>
+          <t>2024-02-03T15:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1861" t="inlineStr">
+        <is>
+          <t>2024-02-03T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="1" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B1862" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>2296.12</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>2309.01</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>2272.3</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>2289.55</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>5438100035</v>
+      </c>
+      <c r="H1862" t="n">
+        <v>275163535442</v>
+      </c>
+      <c r="I1862" t="inlineStr">
+        <is>
+          <t>2024-02-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1862" t="inlineStr">
+        <is>
+          <t>2024-02-04T12:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1862" t="inlineStr">
+        <is>
+          <t>2024-02-04T19:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1862" t="inlineStr">
+        <is>
+          <t>2024-02-04T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="1" t="n">
+        <v>1861</v>
+      </c>
+      <c r="B1863" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>2289.21</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>2334.68</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>2270.07</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>2298.89</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>7277068110</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>276287885418</v>
+      </c>
+      <c r="I1863" t="inlineStr">
+        <is>
+          <t>2024-02-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1863" t="inlineStr">
+        <is>
+          <t>2024-02-05T13:39:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1863" t="inlineStr">
+        <is>
+          <t>2024-02-05T01:14:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1863" t="inlineStr">
+        <is>
+          <t>2024-02-05T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="1" t="n">
+        <v>1862</v>
+      </c>
+      <c r="B1864" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>2298.96</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>2389.83</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>2296.79</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>2372.2</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>9520885493</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>285099852997</v>
+      </c>
+      <c r="I1864" t="inlineStr">
+        <is>
+          <t>2024-02-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1864" t="inlineStr">
+        <is>
+          <t>2024-02-06T20:23:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1864" t="inlineStr">
+        <is>
+          <t>2024-02-06T00:07:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1864" t="inlineStr">
+        <is>
+          <t>2024-02-06T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="1" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B1865" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>2372.26</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>2442.64</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>2353.71</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>2423.75</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>9660628536</v>
+      </c>
+      <c r="H1865" t="n">
+        <v>291290954312</v>
+      </c>
+      <c r="I1865" t="inlineStr">
+        <is>
+          <t>2024-02-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1865" t="inlineStr">
+        <is>
+          <t>2024-02-07T20:51:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1865" t="inlineStr">
+        <is>
+          <t>2024-02-07T10:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1865" t="inlineStr">
+        <is>
+          <t>2024-02-07T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="1" t="n">
+        <v>1864</v>
+      </c>
+      <c r="B1866" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>2424.08</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>2459.56</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>2414.75</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>2419.91</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>9941841732</v>
+      </c>
+      <c r="H1866" t="n">
+        <v>290825026392</v>
+      </c>
+      <c r="I1866" t="inlineStr">
+        <is>
+          <t>2024-02-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1866" t="inlineStr">
+        <is>
+          <t>2024-02-08T15:39:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1866" t="inlineStr">
+        <is>
+          <t>2024-02-08T07:13:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1866" t="inlineStr">
+        <is>
+          <t>2024-02-08T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="1" t="n">
+        <v>1865</v>
+      </c>
+      <c r="B1867" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>2419.77</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>2522.72</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>2419.36</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>2487.52</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>13634203177</v>
+      </c>
+      <c r="H1867" t="n">
+        <v>298941592941</v>
+      </c>
+      <c r="I1867" t="inlineStr">
+        <is>
+          <t>2024-02-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1867" t="inlineStr">
+        <is>
+          <t>2024-02-09T18:33:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1867" t="inlineStr">
+        <is>
+          <t>2024-02-09T00:16:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1867" t="inlineStr">
+        <is>
+          <t>2024-02-09T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="1" t="n">
+        <v>1866</v>
+      </c>
+      <c r="B1868" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>2487.65</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>2516.72</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>2475.86</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>2501.23</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>6474444159</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>300577536715</v>
+      </c>
+      <c r="I1868" t="inlineStr">
+        <is>
+          <t>2024-02-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1868" t="inlineStr">
+        <is>
+          <t>2024-02-10T21:28:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1868" t="inlineStr">
+        <is>
+          <t>2024-02-10T10:54:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1868" t="inlineStr">
+        <is>
+          <t>2024-02-10T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="1" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B1869" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>2501.13</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>2537.68</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>2495.21</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>2507.57</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>7347245813</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>301336201774</v>
+      </c>
+      <c r="I1869" t="inlineStr">
+        <is>
+          <t>2024-02-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1869" t="inlineStr">
+        <is>
+          <t>2024-02-11T08:20:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1869" t="inlineStr">
+        <is>
+          <t>2024-02-11T00:16:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1869" t="inlineStr">
+        <is>
+          <t>2024-02-11T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="1" t="n">
+        <v>1868</v>
+      </c>
+      <c r="B1870" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>2507.58</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>2663.84</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>2473.81</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>2658.12</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>13022696866</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>319425795480</v>
+      </c>
+      <c r="I1870" t="inlineStr">
+        <is>
+          <t>2024-02-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1870" t="inlineStr">
+        <is>
+          <t>2024-02-12T22:47:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1870" t="inlineStr">
+        <is>
+          <t>2024-02-12T09:52:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1870" t="inlineStr">
+        <is>
+          <t>2024-02-12T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="1" t="n">
+        <v>1869</v>
+      </c>
+      <c r="B1871" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>2659.59</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>2686.46</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>2599.17</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>2642.19</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>18271237044</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>317506577415</v>
+      </c>
+      <c r="I1871" t="inlineStr">
+        <is>
+          <t>2024-02-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1871" t="inlineStr">
+        <is>
+          <t>2024-02-13T12:08:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1871" t="inlineStr">
+        <is>
+          <t>2024-02-13T17:14:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1871" t="inlineStr">
+        <is>
+          <t>2024-02-13T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="1" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B1872" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>2641.69</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>2786.89</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>2621.03</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>2777.9</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>21448973822</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>333813029761</v>
+      </c>
+      <c r="I1872" t="inlineStr">
+        <is>
+          <t>2024-02-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1872" t="inlineStr">
+        <is>
+          <t>2024-02-14T21:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1872" t="inlineStr">
+        <is>
+          <t>2024-02-14T02:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1872" t="inlineStr">
+        <is>
+          <t>2024-02-14T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="1" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B1873" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>2777.6</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>2865.85</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>2764.01</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>2824.38</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>23734481937</v>
+      </c>
+      <c r="H1873" t="n">
+        <v>339396902036</v>
+      </c>
+      <c r="I1873" t="inlineStr">
+        <is>
+          <t>2024-02-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1873" t="inlineStr">
+        <is>
+          <t>2024-02-15T15:10:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1873" t="inlineStr">
+        <is>
+          <t>2024-02-15T05:56:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1873" t="inlineStr">
+        <is>
+          <t>2024-02-15T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="1" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B1874" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>2825.48</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>2858.45</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>2760.33</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>2803.69</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>17057114638</v>
+      </c>
+      <c r="H1874" t="n">
+        <v>336907249920</v>
+      </c>
+      <c r="I1874" t="inlineStr">
+        <is>
+          <t>2024-02-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1874" t="inlineStr">
+        <is>
+          <t>2024-02-16T01:27:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1874" t="inlineStr">
+        <is>
+          <t>2024-02-16T19:56:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1874" t="inlineStr">
+        <is>
+          <t>2024-02-16T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="1" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B1875" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>2803.74</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>2805.13</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>2724.39</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>2786.67</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>17932379943</v>
+      </c>
+      <c r="H1875" t="n">
+        <v>334860860582</v>
+      </c>
+      <c r="I1875" t="inlineStr">
+        <is>
+          <t>2024-02-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1875" t="inlineStr">
+        <is>
+          <t>2024-02-17T00:19:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1875" t="inlineStr">
+        <is>
+          <t>2024-02-17T14:37:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1875" t="inlineStr">
+        <is>
+          <t>2024-02-17T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="1" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B1876" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>2786.71</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>2892.84</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>2767.91</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>2879</v>
+      </c>
+      <c r="G1876" t="n">
+        <v>23355830478</v>
+      </c>
+      <c r="H1876" t="n">
+        <v>345956120896</v>
+      </c>
+      <c r="I1876" t="inlineStr">
+        <is>
+          <t>2024-02-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1876" t="inlineStr">
+        <is>
+          <t>2024-02-18T22:40:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1876" t="inlineStr">
+        <is>
+          <t>2024-02-18T02:47:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1876" t="inlineStr">
+        <is>
+          <t>2024-02-18T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="1" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B1877" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>2881.3</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>2983.37</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>2860.26</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>2943.57</v>
+      </c>
+      <c r="G1877" t="n">
+        <v>15163110589</v>
+      </c>
+      <c r="H1877" t="n">
+        <v>353716174190</v>
+      </c>
+      <c r="I1877" t="inlineStr">
+        <is>
+          <t>2024-02-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1877" t="inlineStr">
+        <is>
+          <t>2024-02-19T22:15:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1877" t="inlineStr">
+        <is>
+          <t>2024-02-19T01:38:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1877" t="inlineStr">
+        <is>
+          <t>2024-02-19T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="1" t="n">
+        <v>1876</v>
+      </c>
+      <c r="B1878" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>2944.11</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>3031.52</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>2879.9</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>3013.5</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>20341598470</v>
+      </c>
+      <c r="H1878" t="n">
+        <v>362116088267</v>
+      </c>
+      <c r="I1878" t="inlineStr">
+        <is>
+          <t>2024-02-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1878" t="inlineStr">
+        <is>
+          <t>2024-02-20T23:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1878" t="inlineStr">
+        <is>
+          <t>2024-02-20T09:49:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1878" t="inlineStr">
+        <is>
+          <t>2024-02-20T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="1" t="n">
+        <v>1877</v>
+      </c>
+      <c r="B1879" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>3015.65</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>3017.19</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>2875.42</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>2970.36</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>18897136867</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>356926554787</v>
+      </c>
+      <c r="I1879" t="inlineStr">
+        <is>
+          <t>2024-02-21T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1879" t="inlineStr">
+        <is>
+          <t>2024-02-21T00:06:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1879" t="inlineStr">
+        <is>
+          <t>2024-02-21T14:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1879" t="inlineStr">
+        <is>
+          <t>2024-02-21T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="1" t="n">
+        <v>1878</v>
+      </c>
+      <c r="B1880" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>2969.6</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>3030.67</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>2907.11</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>2971.01</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>18058908246</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>356999419254</v>
+      </c>
+      <c r="I1880" t="inlineStr">
+        <is>
+          <t>2024-02-22T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1880" t="inlineStr">
+        <is>
+          <t>2024-02-22T20:32:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1880" t="inlineStr">
+        <is>
+          <t>2024-02-22T01:55:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1880" t="inlineStr">
+        <is>
+          <t>2024-02-22T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="1" t="n">
+        <v>1879</v>
+      </c>
+      <c r="B1881" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>2970.14</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>2991.33</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>2906.58</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>2921.66</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>12822717059</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>351061910875</v>
+      </c>
+      <c r="I1881" t="inlineStr">
+        <is>
+          <t>2024-02-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1881" t="inlineStr">
+        <is>
+          <t>2024-02-23T00:54:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1881" t="inlineStr">
+        <is>
+          <t>2024-02-23T16:22:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1881" t="inlineStr">
+        <is>
+          <t>2024-02-23T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="1" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B1882" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>2921.96</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>3003.2</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>2907.7</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>2992.39</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>10701688842</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>359554764533</v>
+      </c>
+      <c r="I1882" t="inlineStr">
+        <is>
+          <t>2024-02-24T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1882" t="inlineStr">
+        <is>
+          <t>2024-02-24T17:46:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1882" t="inlineStr">
+        <is>
+          <t>2024-02-24T01:54:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1882" t="inlineStr">
+        <is>
+          <t>2024-02-24T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="1" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B1883" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>2992.37</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>3117.43</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>2984.39</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>3112.7</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>14620450464</v>
+      </c>
+      <c r="H1883" t="n">
+        <v>374009336729</v>
+      </c>
+      <c r="I1883" t="inlineStr">
+        <is>
+          <t>2024-02-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1883" t="inlineStr">
+        <is>
+          <t>2024-02-25T20:20:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1883" t="inlineStr">
+        <is>
+          <t>2024-02-25T00:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1883" t="inlineStr">
+        <is>
+          <t>2024-02-25T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="1" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B1884" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>3112.53</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>3197.38</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>3037.95</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>3178.99</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>17504464351</v>
+      </c>
+      <c r="H1884" t="n">
+        <v>381973378116</v>
+      </c>
+      <c r="I1884" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1884" t="inlineStr">
+        <is>
+          <t>2024-02-26T20:09:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1884" t="inlineStr">
+        <is>
+          <t>2024-02-26T09:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1884" t="inlineStr">
+        <is>
+          <t>2024-02-26T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="1" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B1885" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>3178.4</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>3287.96</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>3167.83</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>3244.52</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>21090315368</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>389840801982</v>
+      </c>
+      <c r="I1885" t="inlineStr">
+        <is>
+          <t>2024-02-27T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1885" t="inlineStr">
+        <is>
+          <t>2024-02-27T12:55:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1885" t="inlineStr">
+        <is>
+          <t>2024-02-27T00:43:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1885" t="inlineStr">
+        <is>
+          <t>2024-02-27T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="1" t="n">
+        <v>1884</v>
+      </c>
+      <c r="B1886" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>3243.89</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>3485.45</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>3201.58</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>3385.7</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>32885894265</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>406795707756</v>
+      </c>
+      <c r="I1886" t="inlineStr">
+        <is>
+          <t>2024-02-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1886" t="inlineStr">
+        <is>
+          <t>2024-02-28T17:16:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1886" t="inlineStr">
+        <is>
+          <t>2024-02-28T17:32:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1886" t="inlineStr">
+        <is>
+          <t>2024-02-28T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B1887" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>3386.8</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>3518.97</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>3303.91</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>3341.92</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>28469171094</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>401521910330</v>
+      </c>
+      <c r="I1887" t="inlineStr">
+        <is>
+          <t>2024-02-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1887" t="inlineStr">
+        <is>
+          <t>2024-02-29T11:37:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1887" t="inlineStr">
+        <is>
+          <t>2024-02-29T22:45:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1887" t="inlineStr">
+        <is>
+          <t>2024-02-29T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="1" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B1888" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>3341.97</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>3452.63</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>3341.85</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>3435.05</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>16880101987</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>412694537325</v>
+      </c>
+      <c r="I1888" t="inlineStr">
+        <is>
+          <t>2024-03-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1888" t="inlineStr">
+        <is>
+          <t>2024-03-01T21:18:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1888" t="inlineStr">
+        <is>
+          <t>2024-03-01T00:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1888" t="inlineStr">
+        <is>
+          <t>2024-03-01T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="1" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B1889" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>3436.16</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>3459.75</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>3398.9</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>3422.05</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>12024340617</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>411121225381</v>
+      </c>
+      <c r="I1889" t="inlineStr">
+        <is>
+          <t>2024-03-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1889" t="inlineStr">
+        <is>
+          <t>2024-03-02T00:39:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1889" t="inlineStr">
+        <is>
+          <t>2024-03-02T14:42:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1889" t="inlineStr">
+        <is>
+          <t>2024-03-02T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="1" t="n">
+        <v>1888</v>
+      </c>
+      <c r="B1890" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>3422.88</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>3491.17</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>3372.21</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>3490.99</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>13643324467</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>419394728671</v>
+      </c>
+      <c r="I1890" t="inlineStr">
+        <is>
+          <t>2024-03-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1890" t="inlineStr">
+        <is>
+          <t>2024-03-03T22:21:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1890" t="inlineStr">
+        <is>
+          <t>2024-03-03T07:28:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1890" t="inlineStr">
+        <is>
+          <t>2024-03-03T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="1" t="n">
+        <v>1889</v>
+      </c>
+      <c r="B1891" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>3489.34</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>3641.46</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>3446.02</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>3630.43</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>26772963830</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>436135402403</v>
+      </c>
+      <c r="I1891" t="inlineStr">
+        <is>
+          <t>2024-03-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1891" t="inlineStr">
+        <is>
+          <t>2024-03-04T23:42:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1891" t="inlineStr">
+        <is>
+          <t>2024-03-04T00:50:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1891" t="inlineStr">
+        <is>
+          <t>2024-03-04T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="1" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B1892" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>3631.93</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>3828.16</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>3224.12</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>3554.96</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>47706899137</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>426939973586</v>
+      </c>
+      <c r="I1892" t="inlineStr">
+        <is>
+          <t>2024-03-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1892" t="inlineStr">
+        <is>
+          <t>2024-03-05T15:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1892" t="inlineStr">
+        <is>
+          <t>2024-03-05T19:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1892" t="inlineStr">
+        <is>
+          <t>2024-03-05T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B1893" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>3554.07</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>3901.43</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>3502.8</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>3819.23</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>34938642613</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>458654737260</v>
+      </c>
+      <c r="I1893" t="inlineStr">
+        <is>
+          <t>2024-03-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1893" t="inlineStr">
+        <is>
+          <t>2024-03-06T12:08:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1893" t="inlineStr">
+        <is>
+          <t>2024-03-06T02:55:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1893" t="inlineStr">
+        <is>
+          <t>2024-03-06T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="1" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B1894" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>3818.31</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>3939.59</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>3738.69</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>3874.35</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>22457177587</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>465421528100</v>
+      </c>
+      <c r="I1894" t="inlineStr">
+        <is>
+          <t>2024-03-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1894" t="inlineStr">
+        <is>
+          <t>2024-03-07T20:51:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1894" t="inlineStr">
+        <is>
+          <t>2024-03-07T06:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1894" t="inlineStr">
+        <is>
+          <t>2024-03-07T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="1" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B1895" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>3874.83</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>3998.83</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>3828.36</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>3892.06</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>26135487051</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>467479204410</v>
+      </c>
+      <c r="I1895" t="inlineStr">
+        <is>
+          <t>2024-03-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1895" t="inlineStr">
+        <is>
+          <t>2024-03-08T15:31:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1895" t="inlineStr">
+        <is>
+          <t>2024-03-08T16:15:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1895" t="inlineStr">
+        <is>
+          <t>2024-03-08T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="1" t="n">
+        <v>1894</v>
+      </c>
+      <c r="B1896" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>3892.12</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>3950.4</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>3880.66</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>3915.42</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>11926623780</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>470282726399</v>
+      </c>
+      <c r="I1896" t="inlineStr">
+        <is>
+          <t>2024-03-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1896" t="inlineStr">
+        <is>
+          <t>2024-03-09T07:08:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1896" t="inlineStr">
+        <is>
+          <t>2024-03-09T17:14:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1896" t="inlineStr">
+        <is>
+          <t>2024-03-09T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="1" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B1897" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>3915.59</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>3968.72</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>3800.56</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>3881.19</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>15783924355</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>466138296995</v>
+      </c>
+      <c r="I1897" t="inlineStr">
+        <is>
+          <t>2024-03-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1897" t="inlineStr">
+        <is>
+          <t>2024-03-10T08:59:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1897" t="inlineStr">
+        <is>
+          <t>2024-03-10T22:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1897" t="inlineStr">
+        <is>
+          <t>2024-03-10T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="1" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B1898" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>3881.24</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>4087.05</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>3745.13</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>4066.44</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>28806262507</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>488401773064</v>
+      </c>
+      <c r="I1898" t="inlineStr">
+        <is>
+          <t>2024-03-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1898" t="inlineStr">
+        <is>
+          <t>2024-03-11T18:23:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1898" t="inlineStr">
+        <is>
+          <t>2024-03-11T00:53:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1898" t="inlineStr">
+        <is>
+          <t>2024-03-11T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="1" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B1899" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>4066.69</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>4092.28</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>3831.89</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>3980.27</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>26917010932</v>
+      </c>
+      <c r="H1899" t="n">
+        <v>478003888346</v>
+      </c>
+      <c r="I1899" t="inlineStr">
+        <is>
+          <t>2024-03-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1899" t="inlineStr">
+        <is>
+          <t>2024-03-12T00:21:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1899" t="inlineStr">
+        <is>
+          <t>2024-03-12T17:23:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1899" t="inlineStr">
+        <is>
+          <t>2024-03-12T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="1" t="n">
+        <v>1898</v>
+      </c>
+      <c r="B1900" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>3980.27</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>4083.01</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>3936.63</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>4006.46</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>22028114691</v>
+      </c>
+      <c r="H1900" t="n">
+        <v>481048430654</v>
+      </c>
+      <c r="I1900" t="inlineStr">
+        <is>
+          <t>2024-03-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1900" t="inlineStr">
+        <is>
+          <t>2024-03-13T08:31:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1900" t="inlineStr">
+        <is>
+          <t>2024-03-13T13:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1900" t="inlineStr">
+        <is>
+          <t>2024-03-13T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="1" t="n">
+        <v>1899</v>
+      </c>
+      <c r="B1901" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>4005.75</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>4011.1</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>3721.79</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>3883.14</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>25434810823</v>
+      </c>
+      <c r="H1901" t="n">
+        <v>466276052159</v>
+      </c>
+      <c r="I1901" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1901" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1901" t="inlineStr">
+        <is>
+          <t>2024-03-14T19:44:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1901" t="inlineStr">
+        <is>
+          <t>2024-03-14T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="1" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B1902" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>3882.86</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>3928.78</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>3571.77</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>3735.22</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>33505075433</v>
+      </c>
+      <c r="H1902" t="n">
+        <v>448641609936</v>
+      </c>
+      <c r="I1902" t="inlineStr">
+        <is>
+          <t>2024-03-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1902" t="inlineStr">
+        <is>
+          <t>2024-03-15T00:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1902" t="inlineStr">
+        <is>
+          <t>2024-03-15T09:15:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1902" t="inlineStr">
+        <is>
+          <t>2024-03-15T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="1" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B1903" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>3736.1</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>3780.89</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>3468.08</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>3522.86</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>20199855932</v>
+      </c>
+      <c r="H1903" t="n">
+        <v>423047432765</v>
+      </c>
+      <c r="I1903" t="inlineStr">
+        <is>
+          <t>2024-03-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1903" t="inlineStr">
+        <is>
+          <t>2024-03-16T01:10:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1903" t="inlineStr">
+        <is>
+          <t>2024-03-16T23:19:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1903" t="inlineStr">
+        <is>
+          <t>2024-03-16T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="1" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B1904" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>3523.03</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>3676.26</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>3414.17</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>3642.41</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>19938757095</v>
+      </c>
+      <c r="H1904" t="n">
+        <v>437365362293</v>
+      </c>
+      <c r="I1904" t="inlineStr">
+        <is>
+          <t>2024-03-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1904" t="inlineStr">
+        <is>
+          <t>2024-03-17T22:42:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1904" t="inlineStr">
+        <is>
+          <t>2024-03-17T07:23:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1904" t="inlineStr">
+        <is>
+          <t>2024-03-17T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="1" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B1905" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>3642.3</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>3642.5</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>3456.09</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>3517.99</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>21162220224</v>
+      </c>
+      <c r="H1905" t="n">
+        <v>422635979695</v>
+      </c>
+      <c r="I1905" t="inlineStr">
+        <is>
+          <t>2024-03-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1905" t="inlineStr">
+        <is>
+          <t>2024-03-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1905" t="inlineStr">
+        <is>
+          <t>2024-03-18T17:10:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1905" t="inlineStr">
+        <is>
+          <t>2024-03-18T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="1" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B1906" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>3518.35</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>3546.58</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>3149.29</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>3157.62</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>34166976701</v>
+      </c>
+      <c r="H1906" t="n">
+        <v>379252163859</v>
+      </c>
+      <c r="I1906" t="inlineStr">
+        <is>
+          <t>2024-03-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1906" t="inlineStr">
+        <is>
+          <t>2024-03-19T00:21:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1906" t="inlineStr">
+        <is>
+          <t>2024-03-19T23:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1906" t="inlineStr">
+        <is>
+          <t>2024-03-19T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="1" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B1907" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>3158.4</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>3534.83</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>3059.65</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>3513.39</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>36605316331</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>421947979246</v>
+      </c>
+      <c r="I1907" t="inlineStr">
+        <is>
+          <t>2024-03-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1907" t="inlineStr">
+        <is>
+          <t>2024-03-20T23:42:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1907" t="inlineStr">
+        <is>
+          <t>2024-03-20T05:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1907" t="inlineStr">
+        <is>
+          <t>2024-03-20T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="1" t="n">
+        <v>1906</v>
+      </c>
+      <c r="B1908" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>3514.02</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>3586.9</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>3412.22</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>3492.99</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>22213647922</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>419407322334</v>
+      </c>
+      <c r="I1908" t="inlineStr">
+        <is>
+          <t>2024-03-21T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1908" t="inlineStr">
+        <is>
+          <t>2024-03-21T09:09:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1908" t="inlineStr">
+        <is>
+          <t>2024-03-21T18:45:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1908" t="inlineStr">
+        <is>
+          <t>2024-03-21T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="1" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B1909" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>3492.9</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>3541.9</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>3254.97</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>3333.69</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>20574952329</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>400516287116</v>
+      </c>
+      <c r="I1909" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1909" t="inlineStr">
+        <is>
+          <t>2024-03-22T06:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1909" t="inlineStr">
+        <is>
+          <t>2024-03-22T21:38:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1909" t="inlineStr">
+        <is>
+          <t>2024-03-22T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="1" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B1910" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>3335.59</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>3433.76</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>3273.12</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>3336.59</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>13242137554</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>400644940936</v>
+      </c>
+      <c r="I1910" t="inlineStr">
+        <is>
+          <t>2024-03-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1910" t="inlineStr">
+        <is>
+          <t>2024-03-23T16:48:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1910" t="inlineStr">
+        <is>
+          <t>2024-03-23T03:38:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1910" t="inlineStr">
+        <is>
+          <t>2024-03-23T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="1" t="n">
+        <v>1909</v>
+      </c>
+      <c r="B1911" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>3336.67</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>3470.34</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>3301.28</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>3454.64</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>12156660941</v>
+      </c>
+      <c r="H1911" t="n">
+        <v>414841195862</v>
+      </c>
+      <c r="I1911" t="inlineStr">
+        <is>
+          <t>2024-03-24T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1911" t="inlineStr">
+        <is>
+          <t>2024-03-24T23:21:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1911" t="inlineStr">
+        <is>
+          <t>2024-03-24T04:41:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1911" t="inlineStr">
+        <is>
+          <t>2024-03-24T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="1" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B1912" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>3454.89</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>3657.12</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>3421.79</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>3590.88</v>
+      </c>
+      <c r="G1912" t="n">
+        <v>18603921705</v>
+      </c>
+      <c r="H1912" t="n">
+        <v>431196903142</v>
+      </c>
+      <c r="I1912" t="inlineStr">
+        <is>
+          <t>2024-03-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1912" t="inlineStr">
+        <is>
+          <t>2024-03-25T17:33:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1912" t="inlineStr">
+        <is>
+          <t>2024-03-25T00:42:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1912" t="inlineStr">
+        <is>
+          <t>2024-03-25T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="B1913" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>3591.09</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>3678.79</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>3545.43</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>3587.51</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>18505553577</v>
+      </c>
+      <c r="H1913" t="n">
+        <v>430743153736</v>
+      </c>
+      <c r="I1913" t="inlineStr">
+        <is>
+          <t>2024-03-26T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1913" t="inlineStr">
+        <is>
+          <t>2024-03-26T07:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1913" t="inlineStr">
+        <is>
+          <t>2024-03-26T16:45:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1913" t="inlineStr">
+        <is>
+          <t>2024-03-26T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="1" t="n">
+        <v>1912</v>
+      </c>
+      <c r="B1914" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>3587.31</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>3664.38</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>3460.39</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>3500.12</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>18753082145</v>
+      </c>
+      <c r="H1914" t="n">
+        <v>420282205191</v>
+      </c>
+      <c r="I1914" t="inlineStr">
+        <is>
+          <t>2024-03-27T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1914" t="inlineStr">
+        <is>
+          <t>2024-03-27T13:31:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1914" t="inlineStr">
+        <is>
+          <t>2024-03-27T19:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1914" t="inlineStr">
+        <is>
+          <t>2024-03-27T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="1" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B1915" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>3500.22</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>3609.71</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>3465.33</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>3561.29</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>16419674157</v>
+      </c>
+      <c r="H1915" t="n">
+        <v>427577249074</v>
+      </c>
+      <c r="I1915" t="inlineStr">
+        <is>
+          <t>2024-03-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1915" t="inlineStr">
+        <is>
+          <t>2024-03-28T14:52:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1915" t="inlineStr">
+        <is>
+          <t>2024-03-28T02:46:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1915" t="inlineStr">
+        <is>
+          <t>2024-03-28T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="1" t="n">
+        <v>1914</v>
+      </c>
+      <c r="B1916" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>3561.01</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>3583.7</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>3475.73</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>3511.81</v>
+      </c>
+      <c r="G1916" t="n">
+        <v>12712701619</v>
+      </c>
+      <c r="H1916" t="n">
+        <v>421667718721</v>
+      </c>
+      <c r="I1916" t="inlineStr">
+        <is>
+          <t>2024-03-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1916" t="inlineStr">
+        <is>
+          <t>2024-03-29T01:41:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1916" t="inlineStr">
+        <is>
+          <t>2024-03-29T17:53:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1916" t="inlineStr">
+        <is>
+          <t>2024-03-29T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="1" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B1917" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>3511.83</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>3566.08</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>3489.9</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>3507.94</v>
+      </c>
+      <c r="G1917" t="n">
+        <v>9389066783</v>
+      </c>
+      <c r="H1917" t="n">
+        <v>421201618787</v>
+      </c>
+      <c r="I1917" t="inlineStr">
+        <is>
+          <t>2024-03-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1917" t="inlineStr">
+        <is>
+          <t>2024-03-30T12:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1917" t="inlineStr">
+        <is>
+          <t>2024-03-30T04:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1917" t="inlineStr">
+        <is>
+          <t>2024-03-30T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="1" t="n">
+        <v>1916</v>
+      </c>
+      <c r="B1918" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>3507.95</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>3655.22</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>3507.24</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>3647.86</v>
+      </c>
+      <c r="G1918" t="n">
+        <v>10499881424</v>
+      </c>
+      <c r="H1918" t="n">
+        <v>437995776899</v>
+      </c>
+      <c r="I1918" t="inlineStr">
+        <is>
+          <t>2024-03-31T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1918" t="inlineStr">
+        <is>
+          <t>2024-03-31T18:50:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1918" t="inlineStr">
+        <is>
+          <t>2024-03-31T00:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1918" t="inlineStr">
+        <is>
+          <t>2024-03-31T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="1" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B1919" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>3647.82</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>3648.13</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>3418.7</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>3505.03</v>
+      </c>
+      <c r="G1919" t="n">
+        <v>16002098681</v>
+      </c>
+      <c r="H1919" t="n">
+        <v>420826425525</v>
+      </c>
+      <c r="I1919" t="inlineStr">
+        <is>
+          <t>2024-04-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1919" t="inlineStr">
+        <is>
+          <t>2024-04-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1919" t="inlineStr">
+        <is>
+          <t>2024-04-01T17:38:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1919" t="inlineStr">
+        <is>
+          <t>2024-04-01T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="1" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B1920" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>3504.82</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>3506.96</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>3215.99</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>3277.23</v>
+      </c>
+      <c r="G1920" t="n">
+        <v>22076539151</v>
+      </c>
+      <c r="H1920" t="n">
+        <v>393510716982</v>
+      </c>
+      <c r="I1920" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1920" t="inlineStr">
+        <is>
+          <t>2024-04-02T00:07:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1920" t="inlineStr">
+        <is>
+          <t>2024-04-02T16:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1920" t="inlineStr">
+        <is>
+          <t>2024-04-02T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="1" t="n">
+        <v>1919</v>
+      </c>
+      <c r="B1921" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>3277.32</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>3368.11</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>3205.65</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>3311.44</v>
+      </c>
+      <c r="G1921" t="n">
+        <v>16010734587</v>
+      </c>
+      <c r="H1921" t="n">
+        <v>397608893144</v>
+      </c>
+      <c r="I1921" t="inlineStr">
+        <is>
+          <t>2024-04-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1921" t="inlineStr">
+        <is>
+          <t>2024-04-03T16:34:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1921" t="inlineStr">
+        <is>
+          <t>2024-04-03T00:40:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1921" t="inlineStr">
+        <is>
+          <t>2024-04-03T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B1922" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>3311.5</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>3443.21</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>3253.32</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>3330.04</v>
+      </c>
+      <c r="G1922" t="n">
+        <v>14476330517</v>
+      </c>
+      <c r="H1922" t="n">
+        <v>399909422387</v>
+      </c>
+      <c r="I1922" t="inlineStr">
+        <is>
+          <t>2024-04-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1922" t="inlineStr">
+        <is>
+          <t>2024-04-04T18:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1922" t="inlineStr">
+        <is>
+          <t>2024-04-04T04:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1922" t="inlineStr">
+        <is>
+          <t>2024-04-04T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="1" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B1923" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>3330.01</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>3345.67</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>3214.24</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>3318.89</v>
+      </c>
+      <c r="G1923" t="n">
+        <v>15214447092</v>
+      </c>
+      <c r="H1923" t="n">
+        <v>399769846957</v>
+      </c>
+      <c r="I1923" t="inlineStr">
+        <is>
+          <t>2024-04-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1923" t="inlineStr">
+        <is>
+          <t>2024-04-05T19:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1923" t="inlineStr">
+        <is>
+          <t>2024-04-05T12:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1923" t="inlineStr">
+        <is>
+          <t>2024-04-05T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="1" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B1924" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>3318.86</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>3397.59</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>3308.98</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>3354.18</v>
+      </c>
+      <c r="G1924" t="n">
+        <v>8956926798</v>
+      </c>
+      <c r="H1924" t="n">
+        <v>402735310354</v>
+      </c>
+      <c r="I1924" t="inlineStr">
+        <is>
+          <t>2024-04-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1924" t="inlineStr">
+        <is>
+          <t>2024-04-06T23:10:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1924" t="inlineStr">
+        <is>
+          <t>2024-04-06T02:38:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1924" t="inlineStr">
+        <is>
+          <t>2024-04-06T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="1" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B1925" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>3354.21</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>3458.51</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>3346.11</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>3453.49</v>
+      </c>
+      <c r="G1925" t="n">
+        <v>9931108526</v>
+      </c>
+      <c r="H1925" t="n">
+        <v>414660162811</v>
+      </c>
+      <c r="I1925" t="inlineStr">
+        <is>
+          <t>2024-04-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1925" t="inlineStr">
+        <is>
+          <t>2024-04-07T23:47:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1925" t="inlineStr">
+        <is>
+          <t>2024-04-07T00:31:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1925" t="inlineStr">
+        <is>
+          <t>2024-04-07T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="1" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B1926" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>3453.5</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>3727.62</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>3409.51</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>3695.29</v>
+      </c>
+      <c r="G1926" t="n">
+        <v>19055143129</v>
+      </c>
+      <c r="H1926" t="n">
+        <v>443701699932</v>
+      </c>
+      <c r="I1926" t="inlineStr">
+        <is>
+          <t>2024-04-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1926" t="inlineStr">
+        <is>
+          <t>2024-04-08T23:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1926" t="inlineStr">
+        <is>
+          <t>2024-04-08T03:12:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1926" t="inlineStr">
+        <is>
+          <t>2024-04-08T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="1" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B1927" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>3695.34</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>3724.92</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>3455.11</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>3505.16</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>18279773833</v>
+      </c>
+      <c r="H1927" t="n">
+        <v>420865715374</v>
+      </c>
+      <c r="I1927" t="inlineStr">
+        <is>
+          <t>2024-04-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1927" t="inlineStr">
+        <is>
+          <t>2024-04-09T02:29:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1927" t="inlineStr">
+        <is>
+          <t>2024-04-09T17:13:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1927" t="inlineStr">
+        <is>
+          <t>2024-04-09T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="1" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B1928" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>3505.16</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>3561.52</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>3415.18</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>3543.74</v>
+      </c>
+      <c r="G1928" t="n">
+        <v>16872482726</v>
+      </c>
+      <c r="H1928" t="n">
+        <v>425462971355</v>
+      </c>
+      <c r="I1928" t="inlineStr">
+        <is>
+          <t>2024-04-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1928" t="inlineStr">
+        <is>
+          <t>2024-04-10T22:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1928" t="inlineStr">
+        <is>
+          <t>2024-04-10T12:40:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1928" t="inlineStr">
+        <is>
+          <t>2024-04-10T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="1" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B1929" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>3543.45</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>3616.19</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>3477.17</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>3505.25</v>
+      </c>
+      <c r="G1929" t="n">
+        <v>14076734489</v>
+      </c>
+      <c r="H1929" t="n">
+        <v>420886866942</v>
+      </c>
+      <c r="I1929" t="inlineStr">
+        <is>
+          <t>2024-04-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1929" t="inlineStr">
+        <is>
+          <t>2024-04-11T08:51:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1929" t="inlineStr">
+        <is>
+          <t>2024-04-11T16:40:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1929" t="inlineStr">
+        <is>
+          <t>2024-04-11T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="1" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B1930" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>3505.33</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>3552.59</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>3103.43</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>3243.03</v>
+      </c>
+      <c r="G1930" t="n">
+        <v>22104869556</v>
+      </c>
+      <c r="H1930" t="n">
+        <v>389383039545</v>
+      </c>
+      <c r="I1930" t="inlineStr">
+        <is>
+          <t>2024-04-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1930" t="inlineStr">
+        <is>
+          <t>2024-04-12T04:54:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1930" t="inlineStr">
+        <is>
+          <t>2024-04-12T18:37:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1930" t="inlineStr">
+        <is>
+          <t>2024-04-12T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="1" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B1931" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>3242.94</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>3299.66</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>2862.39</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>3004.9</v>
+      </c>
+      <c r="G1931" t="n">
+        <v>29930408174</v>
+      </c>
+      <c r="H1931" t="n">
+        <v>360877472068</v>
+      </c>
+      <c r="I1931" t="inlineStr">
+        <is>
+          <t>2024-04-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1931" t="inlineStr">
+        <is>
+          <t>2024-04-13T11:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1931" t="inlineStr">
+        <is>
+          <t>2024-04-13T20:10:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1931" t="inlineStr">
+        <is>
+          <t>2024-04-13T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B1932" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>3005.55</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>3174.67</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>2914.42</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>3156.94</v>
+      </c>
+      <c r="G1932" t="n">
+        <v>25486284994</v>
+      </c>
+      <c r="H1932" t="n">
+        <v>379048988305</v>
+      </c>
+      <c r="I1932" t="inlineStr">
+        <is>
+          <t>2024-04-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1932" t="inlineStr">
+        <is>
+          <t>2024-04-14T23:23:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1932" t="inlineStr">
+        <is>
+          <t>2024-04-14T00:27:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1932" t="inlineStr">
+        <is>
+          <t>2024-04-14T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="1" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B1933" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>3156.83</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>3277.56</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>3026.54</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>3101.6</v>
+      </c>
+      <c r="G1933" t="n">
+        <v>21925843181</v>
+      </c>
+      <c r="H1933" t="n">
+        <v>372352323185</v>
+      </c>
+      <c r="I1933" t="inlineStr">
+        <is>
+          <t>2024-04-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1933" t="inlineStr">
+        <is>
+          <t>2024-04-15T11:06:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1933" t="inlineStr">
+        <is>
+          <t>2024-04-15T19:08:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1933" t="inlineStr">
+        <is>
+          <t>2024-04-15T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="1" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B1934" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>3101.14</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>3127.16</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>2997.75</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>3084.92</v>
+      </c>
+      <c r="G1934" t="n">
+        <v>19441391169</v>
+      </c>
+      <c r="H1934" t="n">
+        <v>370408021052</v>
+      </c>
+      <c r="I1934" t="inlineStr">
+        <is>
+          <t>2024-04-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1934" t="inlineStr">
+        <is>
+          <t>2024-04-16T07:38:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1934" t="inlineStr">
+        <is>
+          <t>2024-04-16T04:47:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1934" t="inlineStr">
+        <is>
+          <t>2024-04-16T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="1" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B1935" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>3084.92</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>3123.67</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>2918.55</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>2984.73</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>17711869375</v>
+      </c>
+      <c r="H1935" t="n">
+        <v>358378757750</v>
+      </c>
+      <c r="I1935" t="inlineStr">
+        <is>
+          <t>2024-04-17T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1935" t="inlineStr">
+        <is>
+          <t>2024-04-17T04:55:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1935" t="inlineStr">
+        <is>
+          <t>2024-04-17T16:08:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1935" t="inlineStr">
+        <is>
+          <t>2024-04-17T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="1" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B1936" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>2984.71</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>3094.84</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>2956.13</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>3066.03</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>15183777035</v>
+      </c>
+      <c r="H1936" t="n">
+        <v>368135477476</v>
+      </c>
+      <c r="I1936" t="inlineStr">
+        <is>
+          <t>2024-04-18T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1936" t="inlineStr">
+        <is>
+          <t>2024-04-18T15:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1936" t="inlineStr">
+        <is>
+          <t>2024-04-18T00:39:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1936" t="inlineStr">
+        <is>
+          <t>2024-04-18T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="1" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B1937" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>3065.95</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>3127.12</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>2868.8</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>3059.28</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>20399982867</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>367361791165</v>
+      </c>
+      <c r="I1937" t="inlineStr">
+        <is>
+          <t>2024-04-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1937" t="inlineStr">
+        <is>
+          <t>2024-04-19T07:06:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1937" t="inlineStr">
+        <is>
+          <t>2024-04-19T02:43:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1937" t="inlineStr">
+        <is>
+          <t>2024-04-19T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B1938" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>3059.48</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>3170.67</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>3021.78</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>3157.63</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>9918642130</v>
+      </c>
+      <c r="H1938" t="n">
+        <v>379136308857</v>
+      </c>
+      <c r="I1938" t="inlineStr">
+        <is>
+          <t>2024-04-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1938" t="inlineStr">
+        <is>
+          <t>2024-04-20T20:12:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1938" t="inlineStr">
+        <is>
+          <t>2024-04-20T01:04:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1938" t="inlineStr">
+        <is>
+          <t>2024-04-20T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="1" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B1939" s="2" t="n">
+        <v>45403</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>3157.57</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>3197.51</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>3119.55</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>3147.29</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>9394387894</v>
+      </c>
+      <c r="H1939" t="n">
+        <v>377899123113</v>
+      </c>
+      <c r="I1939" t="inlineStr">
+        <is>
+          <t>2024-04-21T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1939" t="inlineStr">
+        <is>
+          <t>2024-04-21T03:09:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1939" t="inlineStr">
+        <is>
+          <t>2024-04-21T16:41:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1939" t="inlineStr">
+        <is>
+          <t>2024-04-21T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B1940" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>3147.66</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>3236.66</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>3131.37</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>3201.65</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>12063858733</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>384422319766</v>
+      </c>
+      <c r="I1940" t="inlineStr">
+        <is>
+          <t>2024-04-22T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1940" t="inlineStr">
+        <is>
+          <t>2024-04-22T06:48:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1940" t="inlineStr">
+        <is>
+          <t>2024-04-22T02:09:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1940" t="inlineStr">
+        <is>
+          <t>2024-04-22T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="1" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B1941" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>3201.59</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>3264.42</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>3154.59</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>3219.91</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>11054442653</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>392971157422</v>
+      </c>
+      <c r="I1941" t="inlineStr">
+        <is>
+          <t>2024-04-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1941" t="inlineStr">
+        <is>
+          <t>2024-04-23T14:34:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1941" t="inlineStr">
+        <is>
+          <t>2024-04-23T08:13:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1941" t="inlineStr">
+        <is>
+          <t>2024-04-23T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="1" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B1942" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>3219.96</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>3292.92</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>3105.98</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>3139.81</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>14000234760</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>383182233750</v>
+      </c>
+      <c r="I1942" t="inlineStr">
+        <is>
+          <t>2024-04-24T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1942" t="inlineStr">
+        <is>
+          <t>2024-04-24T12:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1942" t="inlineStr">
+        <is>
+          <t>2024-04-24T19:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1942" t="inlineStr">
+        <is>
+          <t>2024-04-24T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="1" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B1943" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>3139.62</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>3190.98</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>3074.8</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>3156.51</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>13989030260</v>
+      </c>
+      <c r="H1943" t="n">
+        <v>385230800030</v>
+      </c>
+      <c r="I1943" t="inlineStr">
+        <is>
+          <t>2024-04-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1943" t="inlineStr">
+        <is>
+          <t>2024-04-25T21:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1943" t="inlineStr">
+        <is>
+          <t>2024-04-25T10:32:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1943" t="inlineStr">
+        <is>
+          <t>2024-04-25T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B1944" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>3156.38</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>3166.19</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>3103.1</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>3130.16</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>10622333862</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>381981442516</v>
+      </c>
+      <c r="I1944" t="inlineStr">
+        <is>
+          <t>2024-04-26T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1944" t="inlineStr">
+        <is>
+          <t>2024-04-26T14:14:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1944" t="inlineStr">
+        <is>
+          <t>2024-04-26T15:35:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1944" t="inlineStr">
+        <is>
+          <t>2024-04-26T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="1" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B1945" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>3129.73</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>3279.45</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>3071.34</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>3252.17</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>11820785577</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>396940718035</v>
+      </c>
+      <c r="I1945" t="inlineStr">
+        <is>
+          <t>2024-04-27T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1945" t="inlineStr">
+        <is>
+          <t>2024-04-27T18:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1945" t="inlineStr">
+        <is>
+          <t>2024-04-27T01:19:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1945" t="inlineStr">
+        <is>
+          <t>2024-04-27T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="1" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B1946" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>3252.25</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>3351.18</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>3249.15</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>3262.77</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>11379192678</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>398178669382</v>
+      </c>
+      <c r="I1946" t="inlineStr">
+        <is>
+          <t>2024-04-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1946" t="inlineStr">
+        <is>
+          <t>2024-04-28T18:48:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1946" t="inlineStr">
+        <is>
+          <t>2024-04-28T00:13:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1946" t="inlineStr">
+        <is>
+          <t>2024-04-28T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="1" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B1947" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>3262.34</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>3285.47</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>3116.2</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>3215.43</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>15032246816</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>392453053426</v>
+      </c>
+      <c r="I1947" t="inlineStr">
+        <is>
+          <t>2024-04-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1947" t="inlineStr">
+        <is>
+          <t>2024-04-29T01:37:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1947" t="inlineStr">
+        <is>
+          <t>2024-04-29T13:51:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1947" t="inlineStr">
+        <is>
+          <t>2024-04-29T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="1" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B1948" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>3215.38</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>3249.38</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>2918.23</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>3012.29</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>18266894653</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>367513717993</v>
+      </c>
+      <c r="I1948" t="inlineStr">
+        <is>
+          <t>2024-04-30T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1948" t="inlineStr">
+        <is>
+          <t>2024-04-30T00:55:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1948" t="inlineStr">
+        <is>
+          <t>2024-04-30T20:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1948" t="inlineStr">
+        <is>
+          <t>2024-04-30T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B1949" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>3011.02</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>3020.17</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>2815.92</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>2969.78</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>20005057445</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>362491631191</v>
+      </c>
+      <c r="I1949" t="inlineStr">
+        <is>
+          <t>2024-05-01T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1949" t="inlineStr">
+        <is>
+          <t>2024-05-01T00:12:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1949" t="inlineStr">
+        <is>
+          <t>2024-05-01T08:22:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1949" t="inlineStr">
+        <is>
+          <t>2024-05-01T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="1" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B1950" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>2969.79</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>3015.05</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>2894.33</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>2988.17</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>13163903903</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>358849990941</v>
+      </c>
+      <c r="I1950" t="inlineStr">
+        <is>
+          <t>2024-05-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1950" t="inlineStr">
+        <is>
+          <t>2024-05-02T21:41:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1950" t="inlineStr">
+        <is>
+          <t>2024-05-02T01:39:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1950" t="inlineStr">
+        <is>
+          <t>2024-05-02T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="1" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B1951" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>2988.13</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>3127.16</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>2960.18</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>3103.54</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>12862183229</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>372726130111</v>
+      </c>
+      <c r="I1951" t="inlineStr">
+        <is>
+          <t>2024-05-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1951" t="inlineStr">
+        <is>
+          <t>2024-05-03T20:51:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1951" t="inlineStr">
+        <is>
+          <t>2024-05-03T10:44:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1951" t="inlineStr">
+        <is>
+          <t>2024-05-03T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="1" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B1952" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>3103.62</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>3167.54</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>3096.27</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>3117.58</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>8283229638</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>374415036159</v>
+      </c>
+      <c r="I1952" t="inlineStr">
+        <is>
+          <t>2024-05-04T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1952" t="inlineStr">
+        <is>
+          <t>2024-05-04T11:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1952" t="inlineStr">
+        <is>
+          <t>2024-05-04T02:08:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1952" t="inlineStr">
+        <is>
+          <t>2024-05-04T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="1" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B1953" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>3117.64</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>3170.06</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>3075.59</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>3137.25</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>8783447639</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>376807893130</v>
+      </c>
+      <c r="I1953" t="inlineStr">
+        <is>
+          <t>2024-05-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1953" t="inlineStr">
+        <is>
+          <t>2024-05-05T08:51:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1953" t="inlineStr">
+        <is>
+          <t>2024-05-05T03:31:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1953" t="inlineStr">
+        <is>
+          <t>2024-05-05T23:59:59.999Z</t>
         </is>
       </c>
     </row>

--- a/data_historis/ETH_data_historis.xlsx
+++ b/data_historis/ETH_data_historis.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1953"/>
+  <dimension ref="A1:L1960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90286,6 +90286,328 @@
         </is>
       </c>
     </row>
+    <row r="1954">
+      <c r="A1954" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B1954" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>3137.51</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>3220.15</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>3048.24</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>3062.73</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>13008587255</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>367835153605</v>
+      </c>
+      <c r="I1954" t="inlineStr">
+        <is>
+          <t>2024-05-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1954" t="inlineStr">
+        <is>
+          <t>2024-05-06T08:28:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1954" t="inlineStr">
+        <is>
+          <t>2024-05-06T19:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1954" t="inlineStr">
+        <is>
+          <t>2024-05-06T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B1955" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>3062.75</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>3129.08</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>3003.01</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>3006.58</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>11743187337</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>361063137871</v>
+      </c>
+      <c r="I1955" t="inlineStr">
+        <is>
+          <t>2024-05-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1955" t="inlineStr">
+        <is>
+          <t>2024-05-07T09:21:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1955" t="inlineStr">
+        <is>
+          <t>2024-05-07T23:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1955" t="inlineStr">
+        <is>
+          <t>2024-05-07T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="1" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B1956" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>3006.32</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>3037.2</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>2938.47</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>2973.66</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>11791662158</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>357183876076</v>
+      </c>
+      <c r="I1956" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1956" t="inlineStr">
+        <is>
+          <t>2024-05-08T03:46:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1956" t="inlineStr">
+        <is>
+          <t>2024-05-08T20:46:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1956" t="inlineStr">
+        <is>
+          <t>2024-05-08T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="1" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B1957" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>2973.97</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>3057.96</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>2951.22</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>3036.02</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>10861947179</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>364667292117</v>
+      </c>
+      <c r="I1957" t="inlineStr">
+        <is>
+          <t>2024-05-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1957" t="inlineStr">
+        <is>
+          <t>2024-05-09T22:49:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1957" t="inlineStr">
+        <is>
+          <t>2024-05-09T11:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1957" t="inlineStr">
+        <is>
+          <t>2024-05-09T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B1958" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>3036.23</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>3052.73</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>2881</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>2909.79</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>12278653601</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>349493716676</v>
+      </c>
+      <c r="I1958" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1958" t="inlineStr">
+        <is>
+          <t>2024-05-10T07:04:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1958" t="inlineStr">
+        <is>
+          <t>2024-05-10T17:52:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1958" t="inlineStr">
+        <is>
+          <t>2024-05-10T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="1" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B1959" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>2909.85</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>2942.18</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>2888.08</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>2911.6</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>6795916454</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>349716696913</v>
+      </c>
+      <c r="I1959" t="inlineStr">
+        <is>
+          <t>2024-05-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1959" t="inlineStr">
+        <is>
+          <t>2024-05-11T15:20:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1959" t="inlineStr">
+        <is>
+          <t>2024-05-11T11:18:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1959" t="inlineStr">
+        <is>
+          <t>2024-05-11T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="1" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B1960" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>2911.66</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>2953.05</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>2902.2</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>2928.7</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>5908941395</v>
+      </c>
+      <c r="H1960" t="n">
+        <v>351783417609</v>
+      </c>
+      <c r="I1960" t="inlineStr">
+        <is>
+          <t>2024-05-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1960" t="inlineStr">
+        <is>
+          <t>2024-05-12T16:22:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1960" t="inlineStr">
+        <is>
+          <t>2024-05-12T07:35:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1960" t="inlineStr">
+        <is>
+          <t>2024-05-12T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
